--- a/班级工作/2018220905寒假离校情况.xlsx
+++ b/班级工作/2018220905寒假离校情况.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lxr\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E948C-147B-4983-84D4-20D855C28061}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,52 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="171">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>学院代码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学院名   </t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>硕士/博士</t>
-  </si>
-  <si>
-    <t>全日制/非全日制（双证）</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>所在校区</t>
-  </si>
-  <si>
-    <t>离校去向</t>
-  </si>
-  <si>
-    <t>预计离校日期</t>
-  </si>
-  <si>
-    <t>手机号码</t>
-  </si>
-  <si>
-    <t>家庭联系方式</t>
-  </si>
-  <si>
-    <t>家庭所在地址（详细到街道）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">家庭地址是否为成都本地 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="174">
   <si>
     <t>刘哲君</t>
   </si>
@@ -545,12 +494,69 @@
   <si>
     <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全日制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省芜湖市南陵县许镇金龙家电</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>列7</t>
+  </si>
+  <si>
+    <t>列8</t>
+  </si>
+  <si>
+    <t>列9</t>
+  </si>
+  <si>
+    <t>列10</t>
+  </si>
+  <si>
+    <t>列11</t>
+  </si>
+  <si>
+    <t>列12</t>
+  </si>
+  <si>
+    <t>列13</t>
+  </si>
+  <si>
+    <t>列14</t>
+  </si>
+  <si>
+    <t>列15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1149,8 +1155,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1185,28 +1189,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84D7D383-AA04-49E1-BF2B-8EA58CBA7459}" name="表1" displayName="表1" ref="A1:O43" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:O43" xr:uid="{5ADAF931-0D0B-4710-9E8A-300AF6E6EAE7}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O43" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:O43">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="鲍涛"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="10">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{AA4337DA-E4C2-4519-870E-9DE7161D8FF8}" name="姓名" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{4DBF04F9-40A9-43AA-AAAB-3DD0D48AD7E7}" name="学院代码" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{E8C1D9E7-C739-4A45-BF53-96BBFCCEAEED}" name="学院名   " dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{67D11E94-47BC-4845-A89C-F57DCDC56553}" name="学号" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{839E7035-CD8B-4CF8-B6FE-CAC5140215C7}" name="硕士/博士" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{2157F7B1-0921-4BA0-8C8C-BE44C9A8B41C}" name="全日制/非全日制（双证）" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{FD18AE40-0CDF-4BF1-89C5-34EF66D70E65}" name="性别" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{34D32B3C-1547-42D3-81CB-C15E260BE84B}" name="民族" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{51DF92E7-02FE-4456-9CC2-2A9150C9DF9B}" name="所在校区" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{4376773F-B594-41AB-973C-95598CFBABAE}" name="离校去向" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{98E012DA-10DA-425F-9766-7330C8CBA680}" name="预计离校日期" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{2140E407-9C21-4C97-8247-04ADC7D56D2C}" name="手机号码" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{E6238D2B-FF0C-4FF8-95BA-8F2BE6BCD30E}" name="家庭联系方式" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{4D1D0BFE-A520-446B-B98B-BB1A4A2B79E2}" name="家庭所在地址（详细到街道）" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{EE272F10-6A48-4923-8E80-8D15344806F0}" name="家庭地址是否为成都本地 " dataDxfId="0"/>
+    <tableColumn id="1" name="列1" dataDxfId="14"/>
+    <tableColumn id="2" name="列2" dataDxfId="13"/>
+    <tableColumn id="3" name="列3" dataDxfId="12"/>
+    <tableColumn id="4" name="列4" dataDxfId="11"/>
+    <tableColumn id="5" name="列5" dataDxfId="10"/>
+    <tableColumn id="6" name="列6" dataDxfId="9"/>
+    <tableColumn id="7" name="列7" dataDxfId="8"/>
+    <tableColumn id="8" name="列8" dataDxfId="7"/>
+    <tableColumn id="9" name="列9" dataDxfId="6"/>
+    <tableColumn id="10" name="列10" dataDxfId="5"/>
+    <tableColumn id="11" name="列11" dataDxfId="4"/>
+    <tableColumn id="12" name="列12" dataDxfId="3"/>
+    <tableColumn id="13" name="列13" dataDxfId="2"/>
+    <tableColumn id="14" name="列14" dataDxfId="1"/>
+    <tableColumn id="15" name="列15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1469,11 +1478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1493,88 +1502,88 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="17"/>
@@ -1586,43 +1595,43 @@
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="17"/>
@@ -1634,43 +1643,43 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="17"/>
@@ -1682,43 +1691,43 @@
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="17"/>
@@ -1732,44 +1741,50 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="13">
+        <v>43488</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="17"/>
+      <c r="M6" s="5">
+        <v>18715319037</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>158</v>
+      </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
@@ -1780,49 +1795,49 @@
     </row>
     <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K7" s="13">
         <v>43490</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
@@ -1832,43 +1847,43 @@
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="17"/>
@@ -1880,43 +1895,43 @@
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="17"/>
@@ -1928,43 +1943,43 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="17"/>
@@ -1976,43 +1991,43 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="17"/>
@@ -2024,43 +2039,43 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="17"/>
@@ -2072,43 +2087,43 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="17"/>
@@ -2122,49 +2137,49 @@
     </row>
     <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K14" s="13">
         <v>43491</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="M14" s="5">
         <v>13069857151</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
@@ -2174,43 +2189,43 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N15" s="12"/>
       <c r="O15" s="17"/>
@@ -2222,43 +2237,43 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N16" s="12"/>
       <c r="O16" s="17"/>
@@ -2270,43 +2285,43 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="17"/>
@@ -2318,43 +2333,43 @@
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="17"/>
@@ -2366,43 +2381,43 @@
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="17"/>
@@ -2414,43 +2429,43 @@
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N20" s="12"/>
       <c r="O20" s="17"/>
@@ -2462,43 +2477,43 @@
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="5" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="N21" s="12"/>
       <c r="O21" s="17"/>
@@ -2510,43 +2525,43 @@
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="5" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N22" s="12"/>
       <c r="O22" s="17"/>
@@ -2560,49 +2575,49 @@
     </row>
     <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K23" s="10">
         <v>43490</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M23" s="4">
         <v>18073864176</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
@@ -2612,43 +2627,43 @@
       <c r="U23" s="8"/>
       <c r="V23" s="8"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="17"/>
@@ -2662,43 +2677,43 @@
     </row>
     <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K25" s="13">
         <v>43498</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="17"/>
@@ -2710,43 +2725,43 @@
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="17"/>
@@ -2758,43 +2773,43 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N27" s="12"/>
       <c r="O27" s="17"/>
@@ -2806,43 +2821,43 @@
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="17"/>
@@ -2854,43 +2869,43 @@
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="5" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="17"/>
@@ -2902,43 +2917,43 @@
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="5" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="17"/>
@@ -2952,49 +2967,49 @@
     </row>
     <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K31" s="13">
         <v>43496</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M31" s="5">
         <v>15082711064</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -3004,43 +3019,43 @@
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="17"/>
@@ -3052,43 +3067,43 @@
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="17"/>
@@ -3100,43 +3115,43 @@
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="17"/>
@@ -3148,43 +3163,43 @@
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="17"/>
@@ -3196,43 +3211,43 @@
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="17"/>
@@ -3244,43 +3259,43 @@
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="17"/>
@@ -3292,43 +3307,43 @@
       <c r="U37" s="8"/>
       <c r="V37" s="8"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="17"/>
@@ -3340,43 +3355,43 @@
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39" s="15" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="5" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="17"/>
@@ -3388,43 +3403,43 @@
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40" s="15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="5" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="17"/>
@@ -3436,43 +3451,43 @@
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="15" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="17"/>
@@ -3484,43 +3499,43 @@
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="15" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="5" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="17"/>
@@ -3532,43 +3547,43 @@
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="24" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G43" s="26" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K43" s="28"/>
       <c r="L43" s="26" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M43" s="26" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="N43" s="29"/>
       <c r="O43" s="30"/>
